--- a/03_ficks_principle/03_ficks_principle_data.xlsx
+++ b/03_ficks_principle/03_ficks_principle_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="21075" windowHeight="9525"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="20730" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,6 +442,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
       <c r="A1" t="s">
@@ -453,7 +457,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="75.75" thickBot="1">
@@ -461,7 +465,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="60.75" thickBot="1">

--- a/03_ficks_principle/03_ficks_principle_data.xlsx
+++ b/03_ficks_principle/03_ficks_principle_data.xlsx
@@ -438,7 +438,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -452,44 +452,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="75.75" thickBot="1">
+    <row r="2" spans="1:2" ht="30.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="75.75" thickBot="1">
+    <row r="3" spans="1:2" ht="30.75" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="60.75" thickBot="1">
+    <row r="4" spans="1:2" ht="15.75" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105.75" thickBot="1">
+    <row r="5" spans="1:2" ht="30.75" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>4980</v>
+        <v>5100</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="90.75" thickBot="1">
+    <row r="6" spans="1:2" ht="30.75" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>5361</v>
+        <v>5346</v>
       </c>
     </row>
   </sheetData>

--- a/03_ficks_principle/03_ficks_principle_data.xlsx
+++ b/03_ficks_principle/03_ficks_principle_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>Fick's Principle</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>Actual Cardiac Output(mL/min)</t>
+  </si>
+  <si>
+    <t>QCP</t>
+  </si>
+  <si>
+    <t>HumMod</t>
   </si>
 </sst>
 </file>
@@ -435,61 +441,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="30.75" thickBot="1">
+    <row r="2" spans="1:5" ht="75.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>0.15</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.192</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" ht="30.75" thickBot="1">
+    <row r="3" spans="1:5" ht="75.75" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4">
         <v>0.2</v>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1">
+    <row r="4" spans="1:5" ht="60.75" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4">
         <v>255</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>231</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" ht="30.75" thickBot="1">
+    <row r="5" spans="1:5" ht="105.75" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4">
         <v>5100</v>
       </c>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5500</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" ht="30.75" thickBot="1">
+    <row r="6" spans="1:5" ht="90.75" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4">
         <v>5346</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4">
+        <v>5468</v>
       </c>
     </row>
   </sheetData>

--- a/03_ficks_principle/03_ficks_principle_data.xlsx
+++ b/03_ficks_principle/03_ficks_principle_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
   <si>
     <t>Fick's Principle</t>
   </si>
@@ -40,13 +40,16 @@
   </si>
   <si>
     <t>HumMod</t>
+  </si>
+  <si>
+    <t>%Difference</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +62,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,10 +140,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -147,11 +158,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -441,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -455,7 +511,7 @@
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,8 +521,11 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="75.75" thickBot="1">
+    <row r="2" spans="1:8" ht="75.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -479,8 +538,15 @@
       <c r="E2" s="2">
         <v>0.192</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <f>ABS((B2-E2)/B2)</f>
+        <v>0.28000000000000008</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="75.75" thickBot="1">
+    <row r="3" spans="1:8" ht="75.75" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -493,8 +559,15 @@
       <c r="E3" s="4">
         <v>0.15</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" ref="H3:H6" si="0">ABS((B3-E3)/B3)</f>
+        <v>0.25000000000000006</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="60.75" thickBot="1">
+    <row r="4" spans="1:8" ht="60.75" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -507,8 +580,15 @@
       <c r="E4" s="4">
         <v>231</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="0"/>
+        <v>9.4117647058823528E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="105.75" thickBot="1">
+    <row r="5" spans="1:8" ht="105.75" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -521,8 +601,15 @@
       <c r="E5" s="4">
         <v>5500</v>
       </c>
+      <c r="G5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="0"/>
+        <v>7.8431372549019607E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" ht="90.75" thickBot="1">
+    <row r="6" spans="1:8" ht="90.75" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -535,8 +622,24 @@
       <c r="E6" s="4">
         <v>5468</v>
       </c>
+      <c r="G6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="0"/>
+        <v>2.2820800598578377E-2</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H2:H6">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
+      <formula>0.5</formula>
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/03_ficks_principle/03_ficks_principle_data.xlsx
+++ b/03_ficks_principle/03_ficks_principle_data.xlsx
@@ -158,45 +158,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -500,7 +472,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -559,7 +531,7 @@
       <c r="E3" s="4">
         <v>0.15</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="5">
@@ -580,7 +552,7 @@
       <c r="E4" s="4">
         <v>231</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="5">
@@ -601,7 +573,7 @@
       <c r="E5" s="4">
         <v>5500</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="5">
@@ -622,7 +594,7 @@
       <c r="E6" s="4">
         <v>5468</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="5">
@@ -632,11 +604,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H6">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
       <formula>0.5</formula>
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
